--- a/portfolio - 16-02-2023.xlsx
+++ b/portfolio - 16-02-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EYKS\Documents\UNDERGRADUATE\GHOSAL\REPO\QUANT STRATEGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987B8C7B-EE72-4A80-99F7-B6C8B1526EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BA27BA-B55B-4C61-A365-C9B9EE03400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -353,16 +353,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +793,6 @@
         <f>(O2 - P2)/P2</f>
         <v>-0.1208546089473142</v>
       </c>
-      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/portfolio - 16-02-2023.xlsx
+++ b/portfolio - 16-02-2023.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EYKS\Documents\UNDERGRADUATE\GHOSAL\REPO\QUANT STRATEGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BA27BA-B55B-4C61-A365-C9B9EE03400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B12192-E02B-4ED8-B510-F56B6FF33620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>Company name</t>
   </si>
@@ -291,9 +278,6 @@
   </si>
   <si>
     <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -301,7 +285,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -353,15 +337,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,14 +666,13 @@
     <col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,9 +724,8 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -781,7 +760,7 @@
         <v>44951</v>
       </c>
       <c r="N2">
-        <v>1.4467853603274751E-2</v>
+        <v>1.4503252077153901E-2</v>
       </c>
       <c r="O2">
         <v>34.330447429906528</v>
@@ -790,11 +769,10 @@
         <v>39.049795152539403</v>
       </c>
       <c r="Q2">
-        <f>(O2 - P2)/P2</f>
         <v>-0.1208546089473142</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -829,7 +807,7 @@
         <v>44951</v>
       </c>
       <c r="N3">
-        <v>4.0571146475173493E-3</v>
+        <v>4.0451991635627963E-3</v>
       </c>
       <c r="O3">
         <v>9.575334999999999</v>
@@ -838,11 +816,10 @@
         <v>9.6552773983478524</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q18" si="0">(O3 - P3)/P3</f>
         <v>-8.2796583722734417E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -858,8 +835,8 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>86</v>
+      <c r="F4">
+        <v>452</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -877,19 +854,19 @@
         <v>44951</v>
       </c>
       <c r="N4">
-        <v>2.2906762227126069E-2</v>
+        <v>2.2711080470479681E-2</v>
       </c>
       <c r="O4">
         <v>53.759084515697332</v>
       </c>
-      <c r="P4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>54.82650316131587</v>
+      </c>
+      <c r="Q4">
+        <v>-2.0067726655170759E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -924,7 +901,7 @@
         <v>44951</v>
       </c>
       <c r="N5">
-        <v>2.6119018799728382E-2</v>
+        <v>2.6693629110206011E-2</v>
       </c>
       <c r="O5">
         <v>63.186120327102792</v>
@@ -933,11 +910,10 @@
         <v>61.684694199250117</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
         <v>2.4340335108136549E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -972,7 +948,7 @@
         <v>44951</v>
       </c>
       <c r="N6">
-        <v>2.8216578000152918E-2</v>
+        <v>2.8361424191287211E-2</v>
       </c>
       <c r="O6">
         <v>67.133934999999994</v>
@@ -981,11 +957,10 @@
         <v>56.403874999999999</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>0.19023622047244085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.19023622047244079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1002,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>534.20001220703125</v>
+        <v>534.20001220703102</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1020,20 +995,19 @@
         <v>44951</v>
       </c>
       <c r="N7">
-        <v>0.21833633573137151</v>
+        <v>0.22394943050225199</v>
       </c>
       <c r="O7">
         <v>530.10759999999993</v>
       </c>
       <c r="P7">
-        <v>474.50316084289551</v>
+        <v>474.50316084289528</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>0.11718454953667767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.1171845495366777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1068,7 +1042,7 @@
         <v>44951</v>
       </c>
       <c r="N8">
-        <v>1.666948349942526E-2</v>
+        <v>1.7808611787640559E-2</v>
       </c>
       <c r="O8">
         <v>42.154518691588777</v>
@@ -1077,11 +1051,10 @@
         <v>39.830125788216272</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>5.8357659117917626E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5.8357659117917633E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1116,7 +1089,7 @@
         <v>44951</v>
       </c>
       <c r="N9">
-        <v>1.423720666177327E-2</v>
+        <v>1.4950396228970399E-2</v>
       </c>
       <c r="O9">
         <v>35.3888761682243</v>
@@ -1125,11 +1098,10 @@
         <v>33.761799881837078</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
         <v>4.8192818276330832E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1164,7 +1136,7 @@
         <v>44951</v>
       </c>
       <c r="N10">
-        <v>1.135761454363356E-2</v>
+        <v>1.116808275654615E-2</v>
       </c>
       <c r="O10">
         <v>26.435814252336449</v>
@@ -1173,11 +1145,10 @@
         <v>24.970616759095229</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>5.8676864387321975E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5.8676864387321982E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -1212,7 +1183,7 @@
         <v>44951</v>
       </c>
       <c r="N11">
-        <v>6.4196732051245708E-3</v>
+        <v>6.2915812420297687E-3</v>
       </c>
       <c r="O11">
         <v>14.89271495327103</v>
@@ -1221,11 +1192,10 @@
         <v>15.855677886766809</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
         <v>-6.0733003052456741E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1260,7 +1230,7 @@
         <v>44951</v>
       </c>
       <c r="N12">
-        <v>0.25332848215668702</v>
+        <v>0.25012689744567879</v>
       </c>
       <c r="O12">
         <v>592.07191999999998</v>
@@ -1269,11 +1239,10 @@
         <v>604.04182389831544</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>-1.9816349505511196E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-1.9816349505511199E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1308,7 +1277,7 @@
         <v>44951</v>
       </c>
       <c r="N13">
-        <v>0.1313778957394954</v>
+        <v>0.12719935989321049</v>
       </c>
       <c r="O13">
         <v>301.0918457943925</v>
@@ -1317,11 +1286,10 @@
         <v>289.94305396391962</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
         <v>3.8451660345207729E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -1356,7 +1324,7 @@
         <v>44951</v>
       </c>
       <c r="N14">
-        <v>0.14303954488783549</v>
+        <v>0.1429212989723741</v>
       </c>
       <c r="O14">
         <v>338.30703037383171</v>
@@ -1365,11 +1333,10 @@
         <v>343.37919907614452</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
         <v>-1.477133360424681E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1404,7 +1371,7 @@
         <v>44951</v>
       </c>
       <c r="N15">
-        <v>2.894269650780712E-2</v>
+        <v>2.858916961261241E-2</v>
       </c>
       <c r="O15">
         <v>67.673028037383162</v>
@@ -1413,11 +1380,10 @@
         <v>66.411214953271013</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
         <v>1.8999999999999989E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1452,7 +1418,7 @@
         <v>44951</v>
       </c>
       <c r="N16">
-        <v>1.675335511451671E-2</v>
+        <v>1.68757463414979E-2</v>
       </c>
       <c r="O16">
         <v>39.946345794392514</v>
@@ -1461,7 +1427,6 @@
         <v>40.876104197101057</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
         <v>-2.274576848677478E-2</v>
       </c>
     </row>
@@ -1500,7 +1465,7 @@
         <v>44951</v>
       </c>
       <c r="N17">
-        <v>4.9435327795150891E-2</v>
+        <v>4.9487459813981088E-2</v>
       </c>
       <c r="O17">
         <v>117.1410817757009</v>
@@ -1509,8 +1474,7 @@
         <v>100.895239077773</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>0.16101694040692174</v>
+        <v>0.16101694040692169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1548,7 +1512,7 @@
         <v>44951</v>
       </c>
       <c r="N18">
-        <v>1.433505687937996E-2</v>
+        <v>1.4317380390516461E-2</v>
       </c>
       <c r="O18">
         <v>33.890473130841123</v>
@@ -1557,8 +1521,7 @@
         <v>29.25414158027862</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>0.15848462132582408</v>
+        <v>0.15848462132582411</v>
       </c>
     </row>
   </sheetData>
